--- a/saleScript/simple/useMitingPickUpOfflineOurOffice.xlsx
+++ b/saleScript/simple/useMitingPickUpOfflineOurOffice.xlsx
@@ -117,7 +117,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -134,14 +134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -150,7 +150,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -160,7 +160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="186.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
